--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lta-Tnfrsf14.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lta-Tnfrsf14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Tnfrsf14</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.257314</v>
+        <v>0.103879</v>
       </c>
       <c r="H2">
-        <v>0.771942</v>
+        <v>0.311637</v>
       </c>
       <c r="I2">
-        <v>0.798278814653033</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="J2">
-        <v>0.7982788146530329</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.667667333333333</v>
+        <v>5.209944</v>
       </c>
       <c r="N2">
-        <v>11.003002</v>
+        <v>15.629832</v>
       </c>
       <c r="O2">
-        <v>0.1424137080579054</v>
+        <v>0.1751928672265232</v>
       </c>
       <c r="P2">
-        <v>0.1424137080579054</v>
+        <v>0.1751928672265232</v>
       </c>
       <c r="Q2">
-        <v>0.9437421522093331</v>
+        <v>0.541203772776</v>
       </c>
       <c r="R2">
-        <v>8.493679369883999</v>
+        <v>4.870833954984001</v>
       </c>
       <c r="S2">
-        <v>0.1136858460588078</v>
+        <v>0.03327071601352363</v>
       </c>
       <c r="T2">
-        <v>0.1136858460588078</v>
+        <v>0.03327071601352363</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.257314</v>
+        <v>0.103879</v>
       </c>
       <c r="H3">
-        <v>0.771942</v>
+        <v>0.311637</v>
       </c>
       <c r="I3">
-        <v>0.798278814653033</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="J3">
-        <v>0.7982788146530329</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.497701999999999</v>
+        <v>6.497702</v>
       </c>
       <c r="N3">
         <v>19.493106</v>
       </c>
       <c r="O3">
-        <v>0.2523025540689536</v>
+        <v>0.2184958310038485</v>
       </c>
       <c r="P3">
-        <v>0.2523025540689535</v>
+        <v>0.2184958310038485</v>
       </c>
       <c r="Q3">
-        <v>1.671949692428</v>
+        <v>0.674974786058</v>
       </c>
       <c r="R3">
-        <v>15.047547231852</v>
+        <v>6.074773074522001</v>
       </c>
       <c r="S3">
-        <v>0.201407783796097</v>
+        <v>0.04149434197037521</v>
       </c>
       <c r="T3">
-        <v>0.2014077837960969</v>
+        <v>0.04149434197037521</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.257314</v>
+        <v>0.103879</v>
       </c>
       <c r="H4">
-        <v>0.771942</v>
+        <v>0.311637</v>
       </c>
       <c r="I4">
-        <v>0.798278814653033</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="J4">
-        <v>0.7982788146530329</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.188929333333333</v>
+        <v>1.714656666666667</v>
       </c>
       <c r="N4">
-        <v>3.566788</v>
+        <v>5.14397</v>
       </c>
       <c r="O4">
-        <v>0.04616553781744658</v>
+        <v>0.057658127945791</v>
       </c>
       <c r="P4">
-        <v>0.04616553781744658</v>
+        <v>0.057658127945791</v>
       </c>
       <c r="Q4">
-        <v>0.3059281624773333</v>
+        <v>0.1781168198766667</v>
       </c>
       <c r="R4">
-        <v>2.753353462296</v>
+        <v>1.60305137889</v>
       </c>
       <c r="S4">
-        <v>0.03685297080673102</v>
+        <v>0.01094980195897724</v>
       </c>
       <c r="T4">
-        <v>0.03685297080673101</v>
+        <v>0.01094980195897724</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.257314</v>
+        <v>0.103879</v>
       </c>
       <c r="H5">
-        <v>0.771942</v>
+        <v>0.311637</v>
       </c>
       <c r="I5">
-        <v>0.798278814653033</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="J5">
-        <v>0.7982788146530329</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.399313</v>
+        <v>16.31603133333333</v>
       </c>
       <c r="N5">
-        <v>43.19793900000001</v>
+        <v>48.948094</v>
       </c>
       <c r="O5">
-        <v>0.5591182000556946</v>
+        <v>0.5486531738238374</v>
       </c>
       <c r="P5">
-        <v>0.5591182000556946</v>
+        <v>0.5486531738238374</v>
       </c>
       <c r="Q5">
-        <v>3.705144825282</v>
+        <v>1.694893018875333</v>
       </c>
       <c r="R5">
-        <v>33.346303427538</v>
+        <v>15.254037169878</v>
       </c>
       <c r="S5">
-        <v>0.4463322139913972</v>
+        <v>0.1041942187783759</v>
       </c>
       <c r="T5">
-        <v>0.4463322139913972</v>
+        <v>0.1041942187783759</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.065022</v>
+        <v>0.257314</v>
       </c>
       <c r="H6">
-        <v>0.195066</v>
+        <v>0.771942</v>
       </c>
       <c r="I6">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="J6">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.667667333333333</v>
+        <v>5.209944</v>
       </c>
       <c r="N6">
-        <v>11.003002</v>
+        <v>15.629832</v>
       </c>
       <c r="O6">
-        <v>0.1424137080579054</v>
+        <v>0.1751928672265232</v>
       </c>
       <c r="P6">
-        <v>0.1424137080579054</v>
+        <v>0.1751928672265232</v>
       </c>
       <c r="Q6">
-        <v>0.238479065348</v>
+        <v>1.340591530416</v>
       </c>
       <c r="R6">
-        <v>2.146311588131999</v>
+        <v>12.065323773744</v>
       </c>
       <c r="S6">
-        <v>0.0287278619990976</v>
+        <v>0.08241339462551449</v>
       </c>
       <c r="T6">
-        <v>0.0287278619990976</v>
+        <v>0.08241339462551449</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.065022</v>
+        <v>0.257314</v>
       </c>
       <c r="H7">
-        <v>0.195066</v>
+        <v>0.771942</v>
       </c>
       <c r="I7">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="J7">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.497701999999999</v>
+        <v>6.497702</v>
       </c>
       <c r="N7">
         <v>19.493106</v>
       </c>
       <c r="O7">
-        <v>0.2523025540689536</v>
+        <v>0.2184958310038485</v>
       </c>
       <c r="P7">
-        <v>0.2523025540689535</v>
+        <v>0.2184958310038485</v>
       </c>
       <c r="Q7">
-        <v>0.422493579444</v>
+        <v>1.671949692428</v>
       </c>
       <c r="R7">
-        <v>3.802442214995999</v>
+        <v>15.047547231852</v>
       </c>
       <c r="S7">
-        <v>0.05089477027285658</v>
+        <v>0.1027837687094131</v>
       </c>
       <c r="T7">
-        <v>0.05089477027285658</v>
+        <v>0.1027837687094131</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.065022</v>
+        <v>0.257314</v>
       </c>
       <c r="H8">
-        <v>0.195066</v>
+        <v>0.771942</v>
       </c>
       <c r="I8">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="J8">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.188929333333333</v>
+        <v>1.714656666666667</v>
       </c>
       <c r="N8">
-        <v>3.566788</v>
+        <v>5.14397</v>
       </c>
       <c r="O8">
-        <v>0.04616553781744658</v>
+        <v>0.057658127945791</v>
       </c>
       <c r="P8">
-        <v>0.04616553781744658</v>
+        <v>0.057658127945791</v>
       </c>
       <c r="Q8">
-        <v>0.07730656311199999</v>
+        <v>0.4412051655266667</v>
       </c>
       <c r="R8">
-        <v>0.6957590680079999</v>
+        <v>3.97084648974</v>
       </c>
       <c r="S8">
-        <v>0.009312567010715561</v>
+        <v>0.02712326207676498</v>
       </c>
       <c r="T8">
-        <v>0.009312567010715561</v>
+        <v>0.02712326207676498</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.065022</v>
+        <v>0.257314</v>
       </c>
       <c r="H9">
-        <v>0.195066</v>
+        <v>0.771942</v>
       </c>
       <c r="I9">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="J9">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,276 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.399313</v>
+        <v>16.31603133333333</v>
       </c>
       <c r="N9">
-        <v>43.19793900000001</v>
+        <v>48.948094</v>
       </c>
       <c r="O9">
-        <v>0.5591182000556946</v>
+        <v>0.5486531738238374</v>
       </c>
       <c r="P9">
-        <v>0.5591182000556946</v>
+        <v>0.5486531738238374</v>
       </c>
       <c r="Q9">
-        <v>0.9362721298860001</v>
+        <v>4.198343286505333</v>
       </c>
       <c r="R9">
-        <v>8.426449168974001</v>
+        <v>37.785089578548</v>
       </c>
       <c r="S9">
-        <v>0.1127859860642974</v>
+        <v>0.2580948142621608</v>
       </c>
       <c r="T9">
-        <v>0.1127859860642974</v>
+        <v>0.2580948142621608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1858003333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.557401</v>
+      </c>
+      <c r="I10">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="J10">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.209944</v>
+      </c>
+      <c r="N10">
+        <v>15.629832</v>
+      </c>
+      <c r="O10">
+        <v>0.1751928672265232</v>
+      </c>
+      <c r="P10">
+        <v>0.1751928672265232</v>
+      </c>
+      <c r="Q10">
+        <v>0.9680093318480001</v>
+      </c>
+      <c r="R10">
+        <v>8.712083986632001</v>
+      </c>
+      <c r="S10">
+        <v>0.05950875658748507</v>
+      </c>
+      <c r="T10">
+        <v>0.05950875658748507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1858003333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.557401</v>
+      </c>
+      <c r="I11">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="J11">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.497702</v>
+      </c>
+      <c r="N11">
+        <v>19.493106</v>
+      </c>
+      <c r="O11">
+        <v>0.2184958310038485</v>
+      </c>
+      <c r="P11">
+        <v>0.2184958310038485</v>
+      </c>
+      <c r="Q11">
+        <v>1.207275197500667</v>
+      </c>
+      <c r="R11">
+        <v>10.865476777506</v>
+      </c>
+      <c r="S11">
+        <v>0.0742177203240601</v>
+      </c>
+      <c r="T11">
+        <v>0.0742177203240601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1858003333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.557401</v>
+      </c>
+      <c r="I12">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="J12">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.714656666666667</v>
+      </c>
+      <c r="N12">
+        <v>5.14397</v>
+      </c>
+      <c r="O12">
+        <v>0.057658127945791</v>
+      </c>
+      <c r="P12">
+        <v>0.057658127945791</v>
+      </c>
+      <c r="Q12">
+        <v>0.3185837802188889</v>
+      </c>
+      <c r="R12">
+        <v>2.86725402197</v>
+      </c>
+      <c r="S12">
+        <v>0.01958506391004878</v>
+      </c>
+      <c r="T12">
+        <v>0.01958506391004878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1858003333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.557401</v>
+      </c>
+      <c r="I13">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="J13">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16.31603133333333</v>
+      </c>
+      <c r="N13">
+        <v>48.948094</v>
+      </c>
+      <c r="O13">
+        <v>0.5486531738238374</v>
+      </c>
+      <c r="P13">
+        <v>0.5486531738238374</v>
+      </c>
+      <c r="Q13">
+        <v>3.031524060410444</v>
+      </c>
+      <c r="R13">
+        <v>27.283716543694</v>
+      </c>
+      <c r="S13">
+        <v>0.1863641407833007</v>
+      </c>
+      <c r="T13">
+        <v>0.1863641407833007</v>
       </c>
     </row>
   </sheetData>
